--- a/biology/Histoire de la zoologie et de la botanique/André_Villiers_(zoologiste)/André_Villiers_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Villiers_(zoologiste)/André_Villiers_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Villiers_(zoologiste)</t>
+          <t>André_Villiers_(zoologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Villiers est un entomologiste et un herpétologiste français, né le 9 avril 1915 au Perreux-sur-Marne et mort le 8 juin 1983 dans cette même ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Villiers est un entomologiste et un herpétologiste français, né le 9 avril 1915 au Perreux-sur-Marne et mort le 8 juin 1983 dans cette même ville.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Villiers_(zoologiste)</t>
+          <t>André_Villiers_(zoologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Villiers commence à s'intéresser dès son jeune âge à l'histoire naturelle et, dès treize ans, fréquente René Gabriel Jeannel (1879-1965) au laboratoire d'entomologie du Muséum national d'histoire naturelle à Paris. Il participe également aux activités des Coléoptéristes de la Seine.
 Après son service militaire, André Villiers entre au Muséum en 1937 comme aide-technique. Il participe à plusieurs missions scientifiques dont celle conduite par Bernard Gèze (1913-1996) au Cameroun. Ayant obtenu son doctorat en 1943 avec une thèse intitulée Études morphologique et biologique des Languriitae (Col. Erotylidae), il est sollicité après la fin de la guerre par Théodore Monod (1902-2000) pour prendre en charge l’entomologie au sein de l'Institut français d'Afrique noire (IFAN).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Villiers_(zoologiste)</t>
+          <t>André_Villiers_(zoologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>s.d. : avec André Descarpentries (1919-1998), Petits animaux des eaux douces, Nathan (Paris) : 122 p.
 1943 : Étude morphologique et biologique des Languriitae, Publications du Muséum national d'histoire naturelle ; 6 : 98 p.
